--- a/Docs/Employee.xlsx
+++ b/Docs/Employee.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" xr2:uid="{2A4883E9-1981-4DFB-AA04-59570FB75FD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="191">
   <si>
     <t>Code</t>
   </si>
@@ -41,70 +41,573 @@
     <t>RankCode</t>
   </si>
   <si>
-    <t>Marin,Oscar</t>
-  </si>
-  <si>
     <t>oscar.marin@cr.ey.com</t>
   </si>
   <si>
     <t>Senior Manager</t>
   </si>
   <si>
-    <t>2-Senior Manager</t>
-  </si>
-  <si>
-    <t>Villarreal,Aleida</t>
-  </si>
-  <si>
-    <t>aleyda@ey.com</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>1-Manager</t>
-  </si>
-  <si>
-    <t>Arrieta,Gustavo</t>
-  </si>
-  <si>
-    <t>gustavo@ey.com</t>
-  </si>
-  <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>3-Senior</t>
-  </si>
-  <si>
-    <t>Salas,Diego</t>
-  </si>
-  <si>
-    <t>diego@ey.com</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
-    <t>2-Staff</t>
+    <t>PA014151552</t>
+  </si>
+  <si>
+    <t>Adrián  Luna Sandí</t>
+  </si>
+  <si>
+    <t>44-Staff/Assistant</t>
+  </si>
+  <si>
+    <t>PA014151572</t>
+  </si>
+  <si>
+    <t>Alejandro José Leiva Palomo</t>
+  </si>
+  <si>
+    <t>PA014151491</t>
+  </si>
+  <si>
+    <t>Alexander  Castillo Bruno</t>
+  </si>
+  <si>
+    <t>Junior Staff</t>
+  </si>
+  <si>
+    <t>51-Intern (CS)</t>
+  </si>
+  <si>
+    <t>PA014151557</t>
+  </si>
+  <si>
+    <t>Andrés  Aguilar Masís</t>
+  </si>
+  <si>
+    <t>42-Senior</t>
+  </si>
+  <si>
+    <t>PA014150866</t>
+  </si>
+  <si>
+    <t>Andres  Mayorga Marín</t>
+  </si>
+  <si>
+    <t>PA014151588</t>
+  </si>
+  <si>
+    <t>Ángel Damián Araya Quirós</t>
+  </si>
+  <si>
+    <t>PA014151505</t>
+  </si>
+  <si>
+    <t>Bernal  Mendoza Pichardo</t>
+  </si>
+  <si>
+    <t>PA014151636</t>
+  </si>
+  <si>
+    <t>Brayan González Marchena</t>
+  </si>
+  <si>
+    <t>PA014151587</t>
+  </si>
+  <si>
+    <t>Carlos  Bonilla Robles</t>
+  </si>
+  <si>
+    <t>PA014151577</t>
+  </si>
+  <si>
+    <t>Cristian  Cifuentes Guerra</t>
+  </si>
+  <si>
+    <t>PA014151348</t>
+  </si>
+  <si>
+    <t>Daniel Adolfo Corrales Murillo</t>
+  </si>
+  <si>
+    <t>PA014151631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deyvid Víquez Zavala
+</t>
+  </si>
+  <si>
+    <t>PA014151605</t>
+  </si>
+  <si>
+    <t>Diego  Hidalgo Arias</t>
+  </si>
+  <si>
+    <t>PA014150870</t>
+  </si>
+  <si>
+    <t>Diego  Salas Arce</t>
+  </si>
+  <si>
+    <t>PA014151633</t>
+  </si>
+  <si>
+    <t>Eric Fernando Paniagua Quiros</t>
+  </si>
+  <si>
+    <t>PA014151458</t>
+  </si>
+  <si>
+    <t>Esteban  Mora Soto</t>
+  </si>
+  <si>
+    <t>PA014151564</t>
+  </si>
+  <si>
+    <t>Esther Del Carmen López Guido</t>
+  </si>
+  <si>
+    <t>PA014150710</t>
+  </si>
+  <si>
+    <t>Fabian  Sandoval Herrera</t>
+  </si>
+  <si>
+    <t>PA014151612</t>
+  </si>
+  <si>
+    <t>Fabián Andrés Vargas Chavarría</t>
+  </si>
+  <si>
+    <t>PA014151289</t>
+  </si>
+  <si>
+    <t>Federico  Mejía Muñoz</t>
+  </si>
+  <si>
+    <t>PA014151599</t>
+  </si>
+  <si>
+    <t>Francisco Angulo Delgadillo</t>
+  </si>
+  <si>
+    <t>PA014150706</t>
+  </si>
+  <si>
+    <t>Gustavo Adolfo Arrieta Vargas</t>
+  </si>
+  <si>
+    <t>PA014151637</t>
+  </si>
+  <si>
+    <t>Gustavo Pérez Espinoza</t>
+  </si>
+  <si>
+    <t>PA014150015</t>
+  </si>
+  <si>
+    <t>Jose  Chaviano Salas</t>
+  </si>
+  <si>
+    <t>32-Manager</t>
+  </si>
+  <si>
+    <t>PA014151632</t>
+  </si>
+  <si>
+    <t>José Miguel Cedeño Jiménez</t>
+  </si>
+  <si>
+    <t>PA014151127</t>
+  </si>
+  <si>
+    <t>José Pablo  Muñoz Peralta</t>
+  </si>
+  <si>
+    <t>PA014151576</t>
+  </si>
+  <si>
+    <t>Joshua  Campos Chiny</t>
+  </si>
+  <si>
+    <t>PA014151558</t>
+  </si>
+  <si>
+    <t>Juan Pablo Achío Camareno</t>
+  </si>
+  <si>
+    <t>PA014151611</t>
+  </si>
+  <si>
+    <t>Kenneth  Molina Rodríguez</t>
+  </si>
+  <si>
+    <t>PA014151338</t>
+  </si>
+  <si>
+    <t>Laura  Madrigal López</t>
+  </si>
+  <si>
+    <t>PA014151010</t>
+  </si>
+  <si>
+    <t>Lingsay  Carranza Otárola</t>
+  </si>
+  <si>
+    <t>PA014151581</t>
+  </si>
+  <si>
+    <t>Luis Diego Esquivel López</t>
+  </si>
+  <si>
+    <t>PA014151606</t>
+  </si>
+  <si>
+    <t>Luis Felipe Quesada Ramirez</t>
+  </si>
+  <si>
+    <t>PA014151658</t>
+  </si>
+  <si>
+    <t>Luis Fernando Alfaro Araya</t>
+  </si>
+  <si>
+    <t>PA014151625</t>
+  </si>
+  <si>
+    <t>Miguel Gomez Vargas</t>
+  </si>
+  <si>
+    <t>PA014150708</t>
+  </si>
+  <si>
+    <t>Oscar  Marin Saenz</t>
+  </si>
+  <si>
+    <t>PA014151640</t>
+  </si>
+  <si>
+    <t>Pamela Quirós Ureña</t>
+  </si>
+  <si>
+    <t>PA014151600</t>
+  </si>
+  <si>
+    <t>Priscila  Madrigal Solís</t>
+  </si>
+  <si>
+    <t>PA014151613</t>
+  </si>
+  <si>
+    <t>Rafael Ángel Oliver Murillo</t>
+  </si>
+  <si>
+    <t>PA014151556</t>
+  </si>
+  <si>
+    <t>Randall Edgardo Castillo Ugalde</t>
+  </si>
+  <si>
+    <t>PA014151590</t>
+  </si>
+  <si>
+    <t>Ricardo Mauricio González Murillo</t>
+  </si>
+  <si>
+    <t>PA014151630</t>
+  </si>
+  <si>
+    <t>Ricardo Melendez Navarro</t>
+  </si>
+  <si>
+    <t>PA014151481</t>
+  </si>
+  <si>
+    <t>Robert  Céspedes García</t>
+  </si>
+  <si>
+    <t>PA014151623</t>
+  </si>
+  <si>
+    <t>Rodrigo Salazar Yarhi</t>
+  </si>
+  <si>
+    <t>PA014150513</t>
+  </si>
+  <si>
+    <t>Valeria  Villalobos Solis</t>
+  </si>
+  <si>
+    <t>PA014151012</t>
+  </si>
+  <si>
+    <t>José Joaquín Apuy Acón</t>
+  </si>
+  <si>
+    <t>PA014150709</t>
+  </si>
+  <si>
+    <t>Ariel  Arguello Gomez</t>
+  </si>
+  <si>
+    <t>PA014151169</t>
+  </si>
+  <si>
+    <t>Gabriel Fernando Arguello Cortés</t>
+  </si>
+  <si>
+    <t>PA013171705</t>
+  </si>
+  <si>
+    <t>Pamela  Brenes García</t>
+  </si>
+  <si>
+    <t>PA014151283</t>
+  </si>
+  <si>
+    <t>José Ricardo Corredor Calderón</t>
+  </si>
+  <si>
+    <t>PA014151101</t>
+  </si>
+  <si>
+    <t>Kimberly  Díaz Artavia</t>
+  </si>
+  <si>
+    <t>PA012538047</t>
+  </si>
+  <si>
+    <t>Ana María Godínez Méndez</t>
+  </si>
+  <si>
+    <t>PA014151492</t>
+  </si>
+  <si>
+    <t>Willy  Hodgson Ramos</t>
+  </si>
+  <si>
+    <t>32-Senior Manager</t>
+  </si>
+  <si>
+    <t>PA014151000</t>
+  </si>
+  <si>
+    <t>José Ricardo Marín Rojas</t>
+  </si>
+  <si>
+    <t>PA014150712</t>
+  </si>
+  <si>
+    <t>Adrian  Mendez Saenz</t>
+  </si>
+  <si>
+    <t>PA014150111</t>
+  </si>
+  <si>
+    <t>Noelia  Paniagua Cortes</t>
+  </si>
+  <si>
+    <t>PA013171955</t>
+  </si>
+  <si>
+    <t>Carlos  Quesada Gómez</t>
+  </si>
+  <si>
+    <t>PA014151501</t>
+  </si>
+  <si>
+    <t>Federico Jhoel Salas González</t>
+  </si>
+  <si>
+    <t>PA014151248</t>
+  </si>
+  <si>
+    <t>Daniel  Segura Guevara</t>
+  </si>
+  <si>
+    <t>PA014151241</t>
+  </si>
+  <si>
+    <t>Jimmy José Solano Gonzalez</t>
+  </si>
+  <si>
+    <t>PA014151328</t>
+  </si>
+  <si>
+    <t>Fernando  Solís Alfaro</t>
+  </si>
+  <si>
+    <t>PA014151243</t>
+  </si>
+  <si>
+    <t>José Pablo  Solís Rojas</t>
+  </si>
+  <si>
+    <t>PA014151240</t>
+  </si>
+  <si>
+    <t>Armando  Vásquez Chavarría</t>
+  </si>
+  <si>
+    <t>PA014150711</t>
+  </si>
+  <si>
+    <t>Aleida  Villarreal Fajardo</t>
+  </si>
+  <si>
+    <t>PA014151551</t>
+  </si>
+  <si>
+    <t>Luis Alonso Barboza Solís</t>
+  </si>
+  <si>
+    <t>PA014151549</t>
+  </si>
+  <si>
+    <t>Kevin  Gutiérrez Gonzalez</t>
+  </si>
+  <si>
+    <t>PA014151550</t>
+  </si>
+  <si>
+    <t>Carlos Alejandro Montero Navarro</t>
+  </si>
+  <si>
+    <t>PA014151563</t>
+  </si>
+  <si>
+    <t>Omar  Quesada Madrigal</t>
+  </si>
+  <si>
+    <t>PA014151555</t>
+  </si>
+  <si>
+    <t>Dennis Gabriel Rivera Quesada</t>
+  </si>
+  <si>
+    <t>PA014151573</t>
+  </si>
+  <si>
+    <t>Isaac  Valdez Cuello</t>
+  </si>
+  <si>
+    <t>PA014151580</t>
+  </si>
+  <si>
+    <t>Juan Carlos Villalta Alvarado</t>
+  </si>
+  <si>
+    <t>PA014151454</t>
+  </si>
+  <si>
+    <t>Gonzalo  Méndez Ballestero</t>
+  </si>
+  <si>
+    <t>PA014151620</t>
+  </si>
+  <si>
+    <t>Daniel  Castro Salas</t>
+  </si>
+  <si>
+    <t>PA014151621</t>
+  </si>
+  <si>
+    <t>Josué Antonio Chinchilla Hidalgo</t>
+  </si>
+  <si>
+    <t>PA014151626</t>
+  </si>
+  <si>
+    <t>Jurgen  Kirton Méndez</t>
+  </si>
+  <si>
+    <t>PA014151619</t>
+  </si>
+  <si>
+    <t>Luis Felipe Leiva Cordero</t>
+  </si>
+  <si>
+    <t>PA014151617</t>
+  </si>
+  <si>
+    <t>Myron Leroy Morris Daley</t>
+  </si>
+  <si>
+    <t>PA014151618</t>
+  </si>
+  <si>
+    <t>David  Obando Paniagua</t>
+  </si>
+  <si>
+    <t>PA014151629</t>
+  </si>
+  <si>
+    <t>Marvin  Rojas Salas</t>
+  </si>
+  <si>
+    <t>PA014151624</t>
+  </si>
+  <si>
+    <t>Michael Alejandro Solano Navarro</t>
+  </si>
+  <si>
+    <t>PA014151478</t>
+  </si>
+  <si>
+    <t>Fernando  Alvarado Fischel</t>
+  </si>
+  <si>
+    <t>Executive Director</t>
+  </si>
+  <si>
+    <t>13-Executive Director</t>
+  </si>
+  <si>
+    <t>PA014151386</t>
+  </si>
+  <si>
+    <t>Monique  Majluf Zeller</t>
+  </si>
+  <si>
+    <t>PA014151168</t>
+  </si>
+  <si>
+    <t>Daniel Rolando Piedra Córdoba</t>
+  </si>
+  <si>
+    <t>PA014151627</t>
+  </si>
+  <si>
+    <t>Raul  Sossa Sossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luis Felipe Quesada Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brayan González Marchena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gustavo Pérez Espinoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> José Miguel Cedeño Jiménez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ricardo Melendez Navarro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,16 +630,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,16 +948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F3926E-20B8-4789-A1B5-4EF6734B6A48}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,81 +974,1537 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F8E63418-CC4B-4B46-9941-C1B9EEC71980}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{35F6A0F6-02ED-47B8-8A5C-B845AF9DA24E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{6DD1B636-F7C0-45F3-A62E-809FD2FC8228}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{670A3DE4-736D-4CBD-947B-0EACABA9C759}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Employee.xlsx
+++ b/Docs/Employee.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="185">
   <si>
     <t>Code</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Willy  Hodgson Ramos</t>
   </si>
   <si>
-    <t>32-Senior Manager</t>
-  </si>
-  <si>
     <t>PA014151000</t>
   </si>
   <si>
@@ -583,21 +580,6 @@
   </si>
   <si>
     <t>Raul  Sossa Sossa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Luis Felipe Quesada Ramirez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brayan González Marchena</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gustavo Pérez Espinoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> José Miguel Cedeño Jiménez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ricardo Melendez Navarro</t>
   </si>
 </sst>
 </file>
@@ -650,6 +632,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E85" totalsRowShown="0">
+  <autoFilter ref="A1:E85"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Email"/>
+    <tableColumn id="4" name="Rank"/>
+    <tableColumn id="5" name="RankCode"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,13 +945,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1580,10 +1583,10 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,44 +1880,44 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1928,10 +1931,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1962,61 +1965,61 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2030,27 +2033,27 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2064,10 +2067,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2081,27 +2084,27 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2115,44 +2118,44 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2166,129 +2169,129 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2302,10 +2305,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2319,10 +2322,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2336,44 +2339,44 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2387,124 +2390,25 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>